--- a/graph_generation/results_prelim/hermes_llama2/level_1/k_3.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_1/k_3.xlsx
@@ -33,7 +33,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node K? Return the sequence of nodes in response.
+Example 1: What is the shortest path from node A to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K
  A 0 1 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0
@@ -47,7 +47,7 @@
  J 0 0 0 0 0 0 0 0 1 0 1
  K 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K
-Example 2: what is the shortest path from node A to node F? Return the sequence of nodes in response.
+Example 2: What is the shortest path from node A to node F? Return the sequence of nodes in response.
    A B C D E F
  A 0 1 0 0 0 0
  B 1 0 1 0 0 0
@@ -56,7 +56,7 @@
  E 0 0 0 1 0 1
  F 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F
-Example 3: what is the shortest path from node A to node I? Return the sequence of nodes in response.
+Example 3: What is the shortest path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0
@@ -69,7 +69,7 @@
  I 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node J? Return the sequence of nodes in response.
+What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
